--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3756945.454232747</v>
+        <v>3860411.264139206</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498523</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7405082.128471022</v>
+        <v>7378965.298449872</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>160.9452598878377</v>
       </c>
       <c r="E2" t="n">
-        <v>364.683509341505</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>79.41653965146601</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>15.07379336750872</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>192.6071998492476</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>184.2697099886696</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,16 +1113,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>243.816749862713</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>130.1102996168604</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>121.0389903687758</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>124.278187532927</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>53.64617193596055</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>61.17118126752709</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,13 +1350,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1534,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>18.7084378797731</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>172.1659031415431</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>93.85094319420044</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>9.146142788179874</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>177.1513727793243</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,10 +2095,10 @@
         <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2245,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>9.146142788179874</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>50.5268247622973</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>45.16086499484926</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2536,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>113.0992099793461</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634834</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="27">
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766861</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>131.7584887394935</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898977</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>100.1928033809235</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545296</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652589</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808068</v>
+        <v>66.37524671012179</v>
       </c>
       <c r="S31" t="n">
-        <v>156.741638509605</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352487</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317884</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445514</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969976</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808194</v>
+        <v>66.37524671012179</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>29.6738200803726</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972046</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,10 +3325,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012179</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>171.9586765026943</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3505,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>105.1820732698661</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>66.37524671012179</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898977</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545296</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>92.8380285705627</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652589</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808206</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
-        <v>156.741638509605</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352471</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317884</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445514</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969976</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600552</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>114.9322208041659</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673023</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1565.440264581601</v>
+        <v>987.178372674844</v>
       </c>
       <c r="C2" t="n">
-        <v>1196.47774764119</v>
+        <v>618.2158557344324</v>
       </c>
       <c r="D2" t="n">
-        <v>1196.47774764119</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176917</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906803</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.040104645723</v>
+        <v>1373.778212738966</v>
       </c>
       <c r="Y2" t="n">
-        <v>1952.040104645723</v>
+        <v>1373.778212738966</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>551.602574876695</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>846.3061319081668</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>644.3338566427974</v>
+        <v>131.4655134886758</v>
       </c>
       <c r="C4" t="n">
-        <v>475.3976737148905</v>
+        <v>131.4655134886758</v>
       </c>
       <c r="D4" t="n">
-        <v>325.2810343025548</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>325.2810343025548</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V4" t="n">
-        <v>1161.740577577775</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W4" t="n">
-        <v>872.3234075408147</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X4" t="n">
-        <v>644.3338566427974</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="Y4" t="n">
-        <v>644.3338566427974</v>
+        <v>131.4655134886758</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1795.666214589422</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C5" t="n">
-        <v>1426.703697649011</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1426.703697649011</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,40 +4564,40 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
         <v>2866.097597267229</v>
@@ -4604,13 +4606,13 @@
         <v>2535.034709923658</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653544</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X5" t="n">
-        <v>2182.266054653544</v>
+        <v>2348.903689733083</v>
       </c>
       <c r="Y5" t="n">
-        <v>2182.266054653544</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>478.9911633238872</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>888.6291790521443</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W7" t="n">
-        <v>888.6291790521443</v>
+        <v>940.4855752677674</v>
       </c>
       <c r="X7" t="n">
-        <v>660.639628154127</v>
+        <v>712.4960243697501</v>
       </c>
       <c r="Y7" t="n">
-        <v>660.639628154127</v>
+        <v>491.70344522622</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1186.376265094905</v>
+        <v>1811.579746109089</v>
       </c>
       <c r="C8" t="n">
-        <v>1186.376265094905</v>
+        <v>1442.617229168677</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881544</v>
+        <v>1442.617229168677</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>1056.828976570433</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>645.8430717808251</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>230.7706216258215</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4811,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y8" t="n">
-        <v>1572.976105159027</v>
+        <v>2198.17958617321</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>590.8070661251691</v>
+        <v>435.8535386027987</v>
       </c>
       <c r="C10" t="n">
-        <v>590.8070661251691</v>
+        <v>266.9173556748918</v>
       </c>
       <c r="D10" t="n">
-        <v>590.8070661251691</v>
+        <v>266.9173556748918</v>
       </c>
       <c r="E10" t="n">
-        <v>442.8939725427759</v>
+        <v>266.9173556748918</v>
       </c>
       <c r="F10" t="n">
-        <v>296.0040250448656</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>128.3011884195845</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>128.3011884195845</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4996,16 +4998,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>590.8070661251691</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y10" t="n">
-        <v>590.8070661251691</v>
+        <v>617.5020034330385</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,13 +5029,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
@@ -5042,46 +5044,46 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000582</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="14">
@@ -5273,43 +5275,43 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5355,22 +5357,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612593</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
         <v>2516.421633107662</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2285.118447313269</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2065.51698233621</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1776.441755680408</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1521.757267474521</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1232.340097437561</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1004.350546539543</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>783.5579673960132</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,19 +5503,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5519571452613</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5695,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2018.121764902392</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1729.046538246589</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1474.362050040702</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1184.944880003742</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="20">
@@ -5738,43 +5740,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492579</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,19 +5825,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M21" t="n">
         <v>680.0291294438171</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>3110.333886317438</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>2941.397703389531</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597624</v>
+        <v>2941.397703389531</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597624</v>
+        <v>2793.484609807138</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>4572.750251921403</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>4353.148786944344</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>4064.073560288542</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>3809.389072082656</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>3519.971902045695</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>3291.982351147677</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>3291.982351147677</v>
       </c>
     </row>
     <row r="23">
@@ -5966,43 +5968,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6011,25 +6013,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>3342.53722908186</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>3173.601046153953</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>3563.32980822539</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611859</v>
+        <v>3563.32980822539</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.284195611859</v>
+        <v>3342.53722908186</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,64 +6214,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616001</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615669</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334542</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.78353867329</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667835</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.01152569472</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740628</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385794</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385794</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385794</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>2565.513299557015</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>3060.838905772774</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>3658.217393399326</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>4285.815356953933</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.001901828445</v>
+        <v>4285.815356953933</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301209</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022983</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566168</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334425</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606223</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400691</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635737</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>835.5837926935551</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>666.647609765648</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>516.5309703533121</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>368.6178767709189</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.528494205774</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>235.528494205774</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1238.024836667325</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1017.232257523795</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192609</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>542.9134462654462</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>1140.291933891998</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446605</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319332</v>
+        <v>2978.516248701936</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656825</v>
+        <v>2809.580065774029</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150029</v>
+        <v>2708.375213874107</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942659</v>
+        <v>2708.375213874107</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>2561.485266376196</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345478</v>
+        <v>2561.485266376196</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384021</v>
+        <v>2419.773435218394</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866307</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296631</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>2679.61201282217</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>3070.01060699811</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729145</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.430181389153</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098138</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671697</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931275</v>
+        <v>4623.787448650998</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>4440.932614305902</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532433</v>
+        <v>4221.331149328844</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>3932.255922673041</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>3677.571434467154</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>3388.154264430194</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>3160.164713532176</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400517</v>
+        <v>3160.164713532176</v>
       </c>
     </row>
     <row r="32">
@@ -6686,37 +6688,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2313.646285131725</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L33" t="n">
-        <v>2808.971891347484</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="M33" t="n">
-        <v>3406.350378974036</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N33" t="n">
-        <v>4033.948342528643</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>4033.948342528643</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>931.4710609784072</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>762.5348780505001</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>612.4182386381642</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>464.5051450557709</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2167.088989850827</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1878.013763195025</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1623.329274989138</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1333.912104952177</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1333.912104952177</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1113.119525808647</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,28 +6925,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6953,34 +6955,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>2803.629501704459</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>2634.693318776553</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>2484.576679364217</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>2484.576679364217</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>2417.92275029663</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>2679.612012822169</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>3070.010606998109</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729144</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.430181389152</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098137</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671696</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>4623.787448650997</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>4440.932614305902</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>4267.236981474897</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>3978.161754819095</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>3723.477266613208</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>3434.060096576247</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>3206.07054567823</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>2985.277966534699</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,28 +7186,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7245,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516144</v>
+        <v>740.5562989961528</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N39" t="n">
-        <v>1804.131916132773</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O39" t="n">
-        <v>2356.04164637206</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>916.3099000622251</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>747.373717134318</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>597.2570777219821</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>449.3439841395889</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>449.3439841395889</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>282.1478848544687</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380725</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>2090.84215317686</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1836.157664970973</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1318.750944035995</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1097.958364892465</v>
       </c>
     </row>
     <row r="41">
@@ -7388,34 +7390,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7436,13 +7438,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972545</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319332</v>
+        <v>878.3568999154078</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656825</v>
+        <v>709.4207169875009</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150029</v>
+        <v>559.3040775751651</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>411.390983992772</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>411.390983992772</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345478</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384021</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532433</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>1099.149479058938</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>878.3568999154078</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7661,34 +7663,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>244.2098454714573</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>3229.653730559302</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>3060.717547631396</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>2910.60090821906</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>2762.687814636667</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>4149.50149546805</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>3860.084325431089</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>3632.094774533072</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>3411.302195389542</v>
       </c>
     </row>
   </sheetData>
@@ -8052,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>255.8421700460946</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23422,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7255247667961</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>79.97174018228486</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>87.17534280744415</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>40.25407754796396</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24133,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>136.2749052347514</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>130.4994612393473</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>134.671115187088</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>173.4237883572449</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>13.66255928343793</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012179</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>48.42266963728905</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="32">
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>187.7316302469158</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>45.44677382459412</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25558,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>35.11263957635786</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>72.68610972170615</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>30.48882721876537</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194188</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>645456.5311200045</v>
+        <v>654369.4223716106</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>634687.7742349395</v>
+        <v>634687.7742349396</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>645456.5311200045</v>
+        <v>634687.7742349395</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>645456.5311200045</v>
+        <v>634687.7742349395</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>645456.5311200045</v>
+        <v>634687.7742349395</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>645456.5311200045</v>
+        <v>634687.7742349395</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>645456.5311200045</v>
+        <v>634687.7742349396</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176766</v>
+      </c>
+      <c r="C2" t="n">
+        <v>800515.7256176758</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176757</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.7256176762</v>
-      </c>
-      <c r="D2" t="n">
-        <v>800515.7256176753</v>
-      </c>
       <c r="E2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="F2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="G2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
         <v>786967.9346977561</v>
       </c>
-      <c r="J2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>800515.7256176771</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.7256176764</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.7256176772</v>
-      </c>
-      <c r="N2" t="n">
-        <v>800515.7256176756</v>
-      </c>
-      <c r="O2" t="n">
-        <v>800515.7256176773</v>
-      </c>
       <c r="P2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.7416121057</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363169</v>
+        <v>49110.09270605442</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89134.17909312018</v>
+        <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
         <v>89134.17909312021</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.14432176885</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768839</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768847</v>
+        <v>9947.144321768881</v>
       </c>
       <c r="I4" t="n">
+        <v>9947.144321768899</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9947.144321768692</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9947.144321768774</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9947.144321768857</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9947.144321768821</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9947.144321768839</v>
+      </c>
+      <c r="O4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="J4" t="n">
-        <v>9947.144321768899</v>
-      </c>
-      <c r="K4" t="n">
-        <v>17938.00358486233</v>
-      </c>
-      <c r="L4" t="n">
-        <v>17938.00358486237</v>
-      </c>
-      <c r="M4" t="n">
-        <v>17938.00358486236</v>
-      </c>
-      <c r="N4" t="n">
-        <v>17938.00358486232</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17938.00358486229</v>
-      </c>
       <c r="P4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-725297.1397644304</v>
+        <v>-545104.2408053098</v>
       </c>
       <c r="C6" t="n">
-        <v>603447.6059631628</v>
+        <v>400008.8643510566</v>
       </c>
       <c r="D6" t="n">
-        <v>603447.6059631619</v>
+        <v>603447.6059631623</v>
       </c>
       <c r="E6" t="n">
-        <v>350485.7987447242</v>
+        <v>350485.7987447244</v>
       </c>
       <c r="F6" t="n">
         <v>675898.2605520796</v>
       </c>
       <c r="G6" t="n">
+        <v>675898.2605520794</v>
+      </c>
+      <c r="H6" t="n">
+        <v>675898.2605520801</v>
+      </c>
+      <c r="I6" t="n">
         <v>675898.2605520796</v>
       </c>
-      <c r="H6" t="n">
-        <v>675898.2605520799</v>
-      </c>
-      <c r="I6" t="n">
-        <v>675898.2605520801</v>
-      </c>
       <c r="J6" t="n">
-        <v>458367.0581548021</v>
+        <v>508293.0827420977</v>
       </c>
       <c r="K6" t="n">
-        <v>659985.8881852677</v>
+        <v>626788.1678460258</v>
       </c>
       <c r="L6" t="n">
-        <v>679413.6061788986</v>
+        <v>675898.2605520798</v>
       </c>
       <c r="M6" t="n">
-        <v>594358.5782433875</v>
+        <v>590843.2326165681</v>
       </c>
       <c r="N6" t="n">
-        <v>679413.6061788979</v>
+        <v>675898.2605520798</v>
       </c>
       <c r="O6" t="n">
-        <v>679413.6061788996</v>
+        <v>675898.26055208</v>
       </c>
       <c r="P6" t="n">
-        <v>675898.2605520796</v>
+        <v>675898.2605520802</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26805,16 +26807,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26981,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>193.7377817328452</v>
       </c>
       <c r="E2" t="n">
-        <v>17.24686073075674</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>69.19893336674635</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>130.3472546554225</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>189.3231702230142</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>185.4613906897995</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>8.32089346111502</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>156.4126987197306</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>173.5687740185447</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>261.9597511231265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>91.77487608697069</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>35.181239142311</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,13 +28070,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28330,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28801,16 +28803,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28849,13 +28851,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29272,13 +29274,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-2.531699752807983e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29287,10 +29289,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29335,13 +29337,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
     <row r="35">
@@ -29992,16 +29994,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-8.858921134937141e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30046,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
     <row r="38">
@@ -30223,19 +30225,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,10 +31837,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
@@ -31847,10 +31849,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>189.0011860882997</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
@@ -31859,10 +31861,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32075,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
@@ -32087,13 +32089,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>558.3177848342784</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>514.6953762540926</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,13 +32314,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>248.0319961154042</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32330,13 +32332,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,16 +32551,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471735</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868572</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -32783,31 +32785,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>370.9642309107744</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>484.1423712692491</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32977,7 +32979,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,25 +33025,25 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>468.3778278510275</v>
+        <v>543.0832917018691</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,7 +33052,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33117,7 +33119,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33129,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33260,34 +33262,34 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>441.0292693655504</v>
       </c>
       <c r="M30" t="n">
-        <v>506.566534435233</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236488</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33453,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,34 +33499,34 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>220.7280629601509</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>245.8118639189571</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33593,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33690,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,37 +33733,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>270.9716933356893</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33830,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33925,7 +33927,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33974,22 +33976,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>353.6230700590482</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>332.9841464938401</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,7 +34000,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34065,7 +34067,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34164,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34211,31 +34213,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>502.2268148619676</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34304,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>189.0011860883002</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>442.4296662895795</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,10 +35497,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>235.5010321525766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>57.65947400496642</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
@@ -35507,10 +35509,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>426.9760727509451</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>372.0991318096482</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35960,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>110.1905571410452</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,13 +35980,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>91.80490927281451</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648388</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>228.3679864663299</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>350.1679638549188</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>334.4034204366973</v>
+        <v>409.1088842875389</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>302.4748895856762</v>
       </c>
       <c r="M30" t="n">
-        <v>364.4325005132147</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.331130754993</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986646</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>82.88662398579186</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969388</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,25 +37302,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558151</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37616,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>211.4890361370299</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>199.0097390795098</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193515</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>359.6305704175232</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3856357.138379826</v>
+        <v>3858117.668682612</v>
       </c>
     </row>
     <row r="7">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>380.5406427189005</v>
+        <v>327.0299994402224</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>249.3022420431532</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>33.28962109883609</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>315.3882082434892</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>315.3882082434892</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>21.86980176345797</v>
       </c>
       <c r="U7" t="n">
-        <v>211.6388270948999</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>297.9986308222597</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8748435506837</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>52.07852635745806</v>
+        <v>73.34931970216547</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701373</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.026033500079</v>
+        <v>206.7582264966188</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.90570098813</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428253</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176109</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444133</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.905700988129</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>111.321323070213</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>147.6895341487364</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3198,10 +3198,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>19.91555826189057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>105.6507867899569</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.91555826189063</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.405431550704</v>
+        <v>858.9396732896237</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.405431550704</v>
+        <v>858.9396732896237</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.405431550704</v>
+        <v>858.9396732896237</v>
       </c>
       <c r="E2" t="n">
-        <v>846.6171789524597</v>
+        <v>858.9396732896237</v>
       </c>
       <c r="F2" t="n">
-        <v>435.6312741628521</v>
+        <v>447.9537685000161</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W2" t="n">
-        <v>1622.544763526516</v>
+        <v>1622.544763526515</v>
       </c>
       <c r="X2" t="n">
-        <v>1622.544763526516</v>
+        <v>1249.079005265435</v>
       </c>
       <c r="Y2" t="n">
-        <v>1232.405431550704</v>
+        <v>858.9396732896237</v>
       </c>
     </row>
     <row r="3">
@@ -4400,13 +4400,13 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
@@ -4415,13 +4415,13 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084329</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
         <v>2199.840679460312</v>
@@ -4479,16 +4479,16 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4512,22 +4512,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1085.413519241705</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1085.413519241705</v>
+        <v>1602.820240176683</v>
       </c>
       <c r="W4" t="n">
-        <v>1085.413519241705</v>
+        <v>1313.403070139722</v>
       </c>
       <c r="X4" t="n">
         <v>1085.413519241705</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2277.953133796417</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C5" t="n">
-        <v>1908.990616856005</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1550.724918249255</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4609,10 +4609,10 @@
         <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796417</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="Y5" t="n">
-        <v>2277.953133796417</v>
+        <v>1959.379186075721</v>
       </c>
     </row>
     <row r="6">
@@ -4640,25 +4640,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4752,10 +4752,10 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.46409084602</v>
+        <v>1623.687497820869</v>
       </c>
       <c r="U7" t="n">
         <v>1623.687497820869</v>
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.60683175406</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473096</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490654</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678286</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734405</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758593</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4953,13 +4953,13 @@
         <v>286.8195251357049</v>
       </c>
       <c r="G10" t="n">
-        <v>119.1166885104239</v>
+        <v>286.8195251357049</v>
       </c>
       <c r="H10" t="n">
-        <v>119.1166885104239</v>
+        <v>140.6023383535627</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075823</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,7 +5217,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
@@ -5229,10 +5229,10 @@
         <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V13" t="n">
         <v>2018.514925172274</v>
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,25 +5266,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5293,16 +5293,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
         <v>4606.28515749258</v>
@@ -5311,16 +5311,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
         <v>2092.798483612593</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5518,22 +5518,22 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5758,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5986,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5995,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
@@ -6238,7 +6238,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="29">
@@ -6460,10 +6460,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>633.9926444679666</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474262</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>113.9333885650331</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>113.9333885650331</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7165,61 +7165,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7326,10 +7326,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7739,16 +7739,16 @@
         <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2527.587654338369</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7806,28 +7806,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2426.846358063199</v>
@@ -8063,16 +8063,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
-        <v>224.3355197601779</v>
+        <v>186.5911984019044</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891651</v>
+        <v>79.42624789262533</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405078</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>69.70496293143164</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9259388694759139</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25086,10 +25086,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25125,10 +25125,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>180.5336875992872</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.45968844823106</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>634687.7742349395</v>
+        <v>634687.7742349396</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>634687.7742349396</v>
+        <v>634687.7742349395</v>
       </c>
     </row>
     <row r="16">
@@ -26316,16 +26316,16 @@
         <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176758</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977554</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977556</v>
@@ -26334,28 +26334,28 @@
         <v>786967.9346977558</v>
       </c>
       <c r="I2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977561</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977557</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="O2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.934697756</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605445</v>
+        <v>49110.09270605448</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26423,13 +26423,13 @@
         <v>89134.17909312021</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768792</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768817</v>
+        <v>9947.144321768861</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26453,7 +26453,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768939</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-545104.2408053098</v>
+        <v>-545104.2408053097</v>
       </c>
       <c r="C6" t="n">
-        <v>400008.8643510562</v>
+        <v>400008.8643510563</v>
       </c>
       <c r="D6" t="n">
         <v>603447.6059631621</v>
       </c>
       <c r="E6" t="n">
-        <v>350138.4194903674</v>
+        <v>350451.0608192885</v>
       </c>
       <c r="F6" t="n">
-        <v>675550.8812977229</v>
+        <v>675863.5226266437</v>
       </c>
       <c r="G6" t="n">
-        <v>675550.8812977229</v>
+        <v>675863.5226266445</v>
       </c>
       <c r="H6" t="n">
-        <v>675550.8812977229</v>
+        <v>675863.5226266442</v>
       </c>
       <c r="I6" t="n">
-        <v>675550.8812977229</v>
+        <v>675863.5226266445</v>
       </c>
       <c r="J6" t="n">
-        <v>507945.7034877401</v>
+        <v>508258.3448166618</v>
       </c>
       <c r="K6" t="n">
-        <v>626440.7885916682</v>
+        <v>626753.4299205897</v>
       </c>
       <c r="L6" t="n">
-        <v>675550.8812977232</v>
+        <v>675863.5226266443</v>
       </c>
       <c r="M6" t="n">
-        <v>590495.8533622109</v>
+        <v>590808.4946911322</v>
       </c>
       <c r="N6" t="n">
-        <v>675550.8812977228</v>
+        <v>675863.5226266441</v>
       </c>
       <c r="O6" t="n">
-        <v>675550.8812977229</v>
+        <v>675863.5226266441</v>
       </c>
       <c r="P6" t="n">
-        <v>675550.881297723</v>
+        <v>675863.5226266441</v>
       </c>
     </row>
   </sheetData>
@@ -26712,13 +26712,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.00706005405351</v>
+        <v>84.51770333273157</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>36.92491207804738</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>218.8480222249919</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>66.54216182877258</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>54.34289243497983</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27824,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>197.6791475127112</v>
       </c>
       <c r="U7" t="n">
-        <v>74.57301111071297</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>108.8774149194517</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.8774149194512</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.27389405238003</v>
+        <v>23.00310070767262</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-2.363549356232397e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28335,16 +28335,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,13 +28377,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-1.414636683656336e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>8.953513792444654e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>556.5325452335035</v>
+        <v>556.5325452335026</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,7 +32104,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32949,7 +32949,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34456,31 +34456,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>171.4104471179097</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,16 +34783,16 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>591.2668520422184</v>
+        <v>553.5225306839449</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235322</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>425.1908331501702</v>
+        <v>425.1908331501693</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>25.73094315394571</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
